--- a/tables/CG_PhenT_Migrat.xlsx
+++ b/tables/CG_PhenT_Migrat.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">-1.106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.2689</t>
+    <t xml:space="preserve">0.2688</t>
   </si>
   <si>
     <t xml:space="preserve">Migratmigrant</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve"> 0.037</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8470</t>
+    <t xml:space="preserve">0.8471</t>
   </si>
   <si>
     <t xml:space="preserve">Pvalue</t>
